--- a/4DNScripts/Rao_et_al_2014/fieldsRaoExpFile.xlsx
+++ b/4DNScripts/Rao_et_al_2014/fieldsRaoExpFile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="496">
   <si>
     <t>Field Name:</t>
   </si>
@@ -1510,6 +1510,9 @@
   </si>
   <si>
     <t>dcic:encodegm12878b2_p31</t>
+  </si>
+  <si>
+    <t>SPRI beads</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2212,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2227,7 +2230,9 @@
     <col min="18" max="18" width="18.5" customWidth="1"/>
     <col min="19" max="20" width="25.33203125" customWidth="1"/>
     <col min="34" max="34" width="19.83203125" customWidth="1"/>
+    <col min="36" max="36" width="29.5" customWidth="1"/>
     <col min="37" max="37" width="24.33203125" customWidth="1"/>
+    <col min="39" max="39" width="26.5" customWidth="1"/>
     <col min="40" max="40" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2296,7 +2301,7 @@
       <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -2546,10 +2551,13 @@
         <v>439</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1">
@@ -2608,10 +2616,13 @@
         <v>439</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="12" customHeight="1">
@@ -2667,10 +2678,13 @@
         <v>440</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="12" customHeight="1">
@@ -2726,10 +2740,13 @@
         <v>440</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="12" customHeight="1">
@@ -2785,10 +2802,13 @@
         <v>440</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="12" customHeight="1">
@@ -2844,10 +2864,13 @@
         <v>440</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="12" customHeight="1">
@@ -2903,10 +2926,13 @@
         <v>440</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="12" customHeight="1">
@@ -2962,11 +2988,14 @@
         <v>440</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="13" spans="1:41" ht="12" customHeight="1">
       <c r="A13">
@@ -3021,10 +3050,13 @@
         <v>440</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:41" ht="12" customHeight="1">
@@ -3080,10 +3112,13 @@
         <v>440</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="12" customHeight="1">
@@ -3139,10 +3174,13 @@
         <v>440</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>443</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="12" customHeight="1">
@@ -3198,13 +3236,16 @@
         <v>440</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="12" customHeight="1">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3257,13 +3298,16 @@
         <v>440</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="12" customHeight="1">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3316,13 +3360,16 @@
         <v>440</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="12" customHeight="1">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3375,13 +3422,16 @@
         <v>440</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="12" customHeight="1">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3434,13 +3484,16 @@
         <v>440</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="12" customHeight="1">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3493,13 +3546,16 @@
         <v>440</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="12" customHeight="1">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3552,13 +3608,16 @@
         <v>440</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3582,11 +3641,14 @@
       <c r="T23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="12" customHeight="1">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3610,11 +3672,14 @@
       <c r="T24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ24" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3638,11 +3703,14 @@
       <c r="T25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="12" customHeight="1">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3698,13 +3766,16 @@
         <v>440</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="12" customHeight="1">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3757,13 +3828,16 @@
         <v>439</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="12" customHeight="1">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3816,13 +3890,16 @@
         <v>440</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y28" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="12" customHeight="1">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3878,13 +3955,16 @@
         <v>440</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="12" customHeight="1">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3937,13 +4017,16 @@
         <v>440</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y30" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="12" customHeight="1">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3996,13 +4079,16 @@
         <v>440</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y31" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ31" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" ht="12" customHeight="1">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4055,13 +4141,16 @@
         <v>440</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="12" customHeight="1">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4114,13 +4203,16 @@
         <v>440</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="12" customHeight="1">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4173,13 +4265,16 @@
         <v>440</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y34" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" ht="12" customHeight="1">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4232,13 +4327,16 @@
         <v>440</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="12" customHeight="1">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4291,13 +4389,16 @@
         <v>440</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y36" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" ht="15">
+      <c r="AJ36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4321,11 +4422,14 @@
       <c r="T37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="12" customHeight="1">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4349,11 +4453,14 @@
       <c r="T38" s="12"/>
       <c r="V38" s="12"/>
       <c r="W38">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:30" ht="15">
+      <c r="AJ38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4377,11 +4484,14 @@
       <c r="T39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:30" ht="14" customHeight="1">
+      <c r="AJ39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="14" customHeight="1">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4437,13 +4547,16 @@
         <v>440</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y40" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" ht="14" customHeight="1">
+      <c r="AJ40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="14" customHeight="1">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4499,13 +4612,16 @@
         <v>440</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" ht="12" customHeight="1">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4529,11 +4645,14 @@
       <c r="T42" s="12"/>
       <c r="V42" s="12"/>
       <c r="W42">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y42" s="4"/>
-    </row>
-    <row r="43" spans="1:30" ht="15">
+      <c r="AJ42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4557,11 +4676,14 @@
       <c r="T43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="1:30" ht="15">
+      <c r="AJ43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4617,7 +4739,7 @@
         <v>440</v>
       </c>
       <c r="W44">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>450</v>
@@ -4625,8 +4747,11 @@
       <c r="AD44" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" ht="15">
+      <c r="AJ44" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" ht="15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4682,7 +4807,7 @@
         <v>440</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>450</v>
@@ -4690,8 +4815,11 @@
       <c r="AD45" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" ht="12" customHeight="1">
+      <c r="AJ45" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" ht="12" customHeight="1">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4715,11 +4843,14 @@
       <c r="T46" s="12"/>
       <c r="V46" s="12"/>
       <c r="W46">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="1:30" ht="15">
+      <c r="AJ46" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" ht="15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4743,11 +4874,14 @@
       <c r="T47" s="11"/>
       <c r="V47" s="11"/>
       <c r="W47">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y47" s="4"/>
-    </row>
-    <row r="48" spans="1:30" ht="15">
+      <c r="AJ47" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" ht="15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4800,13 +4934,16 @@
         <v>439</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ48" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" ht="14" customHeight="1">
       <c r="A49">
         <v>46</v>
       </c>
@@ -4859,13 +4996,16 @@
         <v>439</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="15">
+      <c r="AJ49" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" ht="15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4918,13 +5058,16 @@
         <v>439</v>
       </c>
       <c r="W50">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y50" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="15">
+      <c r="AJ50" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" ht="15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4977,13 +5120,16 @@
         <v>439</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y51" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" ht="15">
+      <c r="AJ51" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" ht="15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -5007,11 +5153,14 @@
       <c r="T52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y52" s="4"/>
-    </row>
-    <row r="53" spans="1:25" ht="15">
+      <c r="AJ52" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5035,11 +5184,14 @@
       <c r="T53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y53" s="4"/>
-    </row>
-    <row r="54" spans="1:25" ht="15">
+      <c r="AJ53" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -5063,11 +5215,14 @@
       <c r="T54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y54" s="4"/>
-    </row>
-    <row r="55" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" ht="14" customHeight="1">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5120,13 +5275,16 @@
         <v>440</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ55" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" ht="14" customHeight="1">
       <c r="A56">
         <v>53</v>
       </c>
@@ -5179,13 +5337,16 @@
         <v>440</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y56" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" ht="14" customHeight="1">
       <c r="A57">
         <v>54</v>
       </c>
@@ -5238,13 +5399,16 @@
         <v>440</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" ht="14" customHeight="1">
       <c r="A58">
         <v>55</v>
       </c>
@@ -5297,13 +5461,16 @@
         <v>440</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" ht="14" customHeight="1">
       <c r="A59">
         <v>56</v>
       </c>
@@ -5356,13 +5523,16 @@
         <v>440</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" ht="15" customHeight="1">
       <c r="A60">
         <v>57</v>
       </c>
@@ -5386,11 +5556,14 @@
       <c r="T60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y60" s="4"/>
-    </row>
-    <row r="61" spans="1:25" ht="15">
+      <c r="AJ60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" ht="15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -5414,11 +5587,14 @@
       <c r="T61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y61" s="4"/>
-    </row>
-    <row r="62" spans="1:25" ht="15">
+      <c r="AJ61" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" ht="15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -5442,11 +5618,14 @@
       <c r="T62" s="11"/>
       <c r="V62" s="11"/>
       <c r="W62">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y62" s="4"/>
-    </row>
-    <row r="63" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" ht="12" customHeight="1">
       <c r="A63">
         <v>60</v>
       </c>
@@ -5493,13 +5672,16 @@
         <v>440</v>
       </c>
       <c r="W63">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y63" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" ht="12" customHeight="1">
       <c r="A64">
         <v>61</v>
       </c>
@@ -5549,13 +5731,16 @@
         <v>440</v>
       </c>
       <c r="W64">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y64" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" ht="12" customHeight="1">
       <c r="A65">
         <v>62</v>
       </c>
@@ -5605,13 +5790,16 @@
         <v>440</v>
       </c>
       <c r="W65">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y65" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" ht="12" customHeight="1">
       <c r="A66">
         <v>63</v>
       </c>
@@ -5661,13 +5849,16 @@
         <v>440</v>
       </c>
       <c r="W66">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" ht="12" customHeight="1">
       <c r="A67">
         <v>64</v>
       </c>
@@ -5717,13 +5908,16 @@
         <v>440</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y67" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ67" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" ht="15" customHeight="1">
       <c r="A68">
         <v>65</v>
       </c>
@@ -5747,11 +5941,14 @@
       <c r="T68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y68" s="4"/>
-    </row>
-    <row r="69" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" ht="12" customHeight="1">
       <c r="A69">
         <v>66</v>
       </c>
@@ -5775,11 +5972,14 @@
       <c r="T69" s="12"/>
       <c r="V69" s="12"/>
       <c r="W69">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y69" s="4"/>
-    </row>
-    <row r="70" spans="1:25" ht="15">
+      <c r="AJ69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" ht="15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -5803,11 +6003,14 @@
       <c r="T70" s="11"/>
       <c r="V70" s="11"/>
       <c r="W70">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y70" s="4"/>
-    </row>
-    <row r="71" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" ht="15" customHeight="1">
       <c r="A71">
         <v>68</v>
       </c>
@@ -5860,13 +6063,16 @@
         <v>440</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y71" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" ht="12" customHeight="1">
       <c r="A72">
         <v>69</v>
       </c>
@@ -5887,11 +6093,14 @@
       </c>
       <c r="V72" s="18"/>
       <c r="W72">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y72" s="4"/>
-    </row>
-    <row r="73" spans="1:25" ht="15">
+      <c r="AJ72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" ht="15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -5915,11 +6124,14 @@
       <c r="T73" s="11"/>
       <c r="V73" s="11"/>
       <c r="W73">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y73" s="4"/>
-    </row>
-    <row r="74" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" ht="14" customHeight="1">
       <c r="A74">
         <v>71</v>
       </c>
@@ -5972,13 +6184,16 @@
         <v>440</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y74" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" ht="12" customHeight="1">
       <c r="A75">
         <v>72</v>
       </c>
@@ -6002,11 +6217,14 @@
       <c r="T75" s="16"/>
       <c r="V75" s="16"/>
       <c r="W75">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y75" s="4"/>
-    </row>
-    <row r="76" spans="1:25" ht="15">
+      <c r="AJ75" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" ht="15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -6030,11 +6248,14 @@
       <c r="T76" s="11"/>
       <c r="V76" s="11"/>
       <c r="W76">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y76" s="4"/>
-    </row>
-    <row r="77" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ76" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" ht="12" customHeight="1">
       <c r="A77">
         <v>74</v>
       </c>
@@ -6087,13 +6308,16 @@
         <v>440</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y77" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ77" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" ht="12" customHeight="1">
       <c r="A78">
         <v>75</v>
       </c>
@@ -6146,13 +6370,16 @@
         <v>440</v>
       </c>
       <c r="W78">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y78" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" ht="12" customHeight="1">
       <c r="A79">
         <v>76</v>
       </c>
@@ -6205,13 +6432,16 @@
         <v>440</v>
       </c>
       <c r="W79">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y79" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ79" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" ht="12" customHeight="1">
       <c r="A80">
         <v>77</v>
       </c>
@@ -6264,13 +6494,16 @@
         <v>440</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y80" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ80" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" ht="12" customHeight="1">
       <c r="A81">
         <v>78</v>
       </c>
@@ -6323,13 +6556,16 @@
         <v>440</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ81" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" ht="12" customHeight="1">
       <c r="A82">
         <v>79</v>
       </c>
@@ -6382,13 +6618,16 @@
         <v>440</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y82" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ82" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" ht="12" customHeight="1">
       <c r="A83">
         <v>80</v>
       </c>
@@ -6441,13 +6680,16 @@
         <v>440</v>
       </c>
       <c r="W83">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" ht="15">
+      <c r="AJ83" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" ht="15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -6471,11 +6713,14 @@
       <c r="T84" s="11"/>
       <c r="V84" s="11"/>
       <c r="W84">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y84" s="4"/>
-    </row>
-    <row r="85" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ84" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" ht="12" customHeight="1">
       <c r="A85">
         <v>82</v>
       </c>
@@ -6499,11 +6744,14 @@
       <c r="T85" s="12"/>
       <c r="V85" s="12"/>
       <c r="W85">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y85" s="4"/>
-    </row>
-    <row r="86" spans="1:25" ht="15">
+      <c r="AJ85" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" ht="15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -6527,11 +6775,14 @@
       <c r="T86" s="11"/>
       <c r="V86" s="11"/>
       <c r="W86">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y86" s="4"/>
-    </row>
-    <row r="87" spans="1:25" ht="14">
+      <c r="AJ86" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" ht="14">
       <c r="A87">
         <v>84</v>
       </c>
@@ -6584,13 +6835,16 @@
         <v>439</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y87" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" ht="12" customHeight="1">
       <c r="A88">
         <v>85</v>
       </c>
@@ -6614,11 +6868,14 @@
       <c r="T88" s="12"/>
       <c r="V88" s="12"/>
       <c r="W88">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y88" s="4"/>
-    </row>
-    <row r="89" spans="1:25" ht="15">
+      <c r="AJ88" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" ht="15">
       <c r="A89">
         <v>86</v>
       </c>
@@ -6642,11 +6899,14 @@
       <c r="T89" s="11"/>
       <c r="V89" s="11"/>
       <c r="W89">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y89" s="4"/>
-    </row>
-    <row r="90" spans="1:25" ht="15">
+      <c r="AJ89" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" ht="15">
       <c r="A90">
         <v>87</v>
       </c>
@@ -6699,13 +6959,16 @@
         <v>440</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y90" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ90" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" ht="14" customHeight="1">
       <c r="A91">
         <v>88</v>
       </c>
@@ -6758,13 +7021,16 @@
         <v>440</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" ht="14" customHeight="1">
       <c r="A92">
         <v>89</v>
       </c>
@@ -6817,13 +7083,16 @@
         <v>440</v>
       </c>
       <c r="W92">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y92" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ92" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" ht="14" customHeight="1">
       <c r="A93">
         <v>90</v>
       </c>
@@ -6876,13 +7145,16 @@
         <v>440</v>
       </c>
       <c r="W93">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y93" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ93" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" ht="14" customHeight="1">
       <c r="A94">
         <v>91</v>
       </c>
@@ -6935,13 +7207,16 @@
         <v>440</v>
       </c>
       <c r="W94">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ94" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" ht="14" customHeight="1">
       <c r="A95">
         <v>92</v>
       </c>
@@ -6994,13 +7269,16 @@
         <v>440</v>
       </c>
       <c r="W95">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y95" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" ht="15">
+      <c r="AJ95" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" ht="15">
       <c r="A96">
         <v>93</v>
       </c>
@@ -7024,11 +7302,14 @@
       <c r="T96" s="11"/>
       <c r="V96" s="11"/>
       <c r="W96">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y96" s="4"/>
-    </row>
-    <row r="97" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ96" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" ht="12" customHeight="1">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7052,11 +7333,14 @@
       <c r="T97" s="12"/>
       <c r="V97" s="12"/>
       <c r="W97">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y97" s="4"/>
-    </row>
-    <row r="98" spans="1:25" ht="14">
+      <c r="AJ97" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" ht="14">
       <c r="A98">
         <v>95</v>
       </c>
@@ -7080,11 +7364,14 @@
       <c r="T98" s="11"/>
       <c r="V98" s="11"/>
       <c r="W98">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y98" s="4"/>
-    </row>
-    <row r="99" spans="1:25" ht="15">
+      <c r="AJ98" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" ht="15">
       <c r="A99">
         <v>96</v>
       </c>
@@ -7137,13 +7424,16 @@
         <v>439</v>
       </c>
       <c r="W99">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y99" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ99" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" ht="12" customHeight="1">
       <c r="A100">
         <v>97</v>
       </c>
@@ -7167,11 +7457,14 @@
       <c r="T100" s="12"/>
       <c r="V100" s="12"/>
       <c r="W100">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y100" s="4"/>
-    </row>
-    <row r="101" spans="1:25" ht="15">
+      <c r="AJ100" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" ht="15">
       <c r="A101">
         <v>98</v>
       </c>
@@ -7195,11 +7488,14 @@
       <c r="T101" s="11"/>
       <c r="V101" s="11"/>
       <c r="W101">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y101" s="4"/>
-    </row>
-    <row r="102" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ101" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" ht="14" customHeight="1">
       <c r="A102">
         <v>99</v>
       </c>
@@ -7252,13 +7548,16 @@
         <v>440</v>
       </c>
       <c r="W102">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ102" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" ht="14" customHeight="1">
       <c r="A103">
         <v>100</v>
       </c>
@@ -7311,13 +7610,16 @@
         <v>440</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y103" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" ht="15">
+      <c r="AJ103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" ht="15">
       <c r="A104">
         <v>101</v>
       </c>
@@ -7370,13 +7672,16 @@
         <v>440</v>
       </c>
       <c r="W104">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y104" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" ht="15">
+      <c r="AJ104" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" ht="15">
       <c r="A105">
         <v>102</v>
       </c>
@@ -7400,11 +7705,14 @@
       <c r="T105" s="11"/>
       <c r="V105" s="11"/>
       <c r="W105">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y105" s="4"/>
-    </row>
-    <row r="106" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ105" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" ht="12" customHeight="1">
       <c r="A106">
         <v>103</v>
       </c>
@@ -7428,11 +7736,14 @@
       <c r="T106" s="12"/>
       <c r="V106" s="12"/>
       <c r="W106">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y106" s="4"/>
-    </row>
-    <row r="107" spans="1:25" ht="15">
+      <c r="AJ106" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" ht="15">
       <c r="A107">
         <v>104</v>
       </c>
@@ -7456,11 +7767,14 @@
       <c r="T107" s="11"/>
       <c r="V107" s="11"/>
       <c r="W107">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y107" s="4"/>
-    </row>
-    <row r="108" spans="1:25" ht="15">
+      <c r="AJ107" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" ht="15">
       <c r="A108">
         <v>105</v>
       </c>
@@ -7513,13 +7827,16 @@
         <v>439</v>
       </c>
       <c r="W108">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y108" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ108" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" ht="12" customHeight="1">
       <c r="A109">
         <v>106</v>
       </c>
@@ -7543,11 +7860,14 @@
       <c r="T109" s="12"/>
       <c r="V109" s="12"/>
       <c r="W109">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y109" s="4"/>
-    </row>
-    <row r="110" spans="1:25" ht="15">
+      <c r="AJ109" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" ht="15">
       <c r="A110">
         <v>107</v>
       </c>
@@ -7571,11 +7891,14 @@
       <c r="T110" s="11"/>
       <c r="V110" s="11"/>
       <c r="W110">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y110" s="4"/>
-    </row>
-    <row r="111" spans="1:25" ht="15">
+      <c r="AJ110" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" ht="15">
       <c r="A111">
         <v>108</v>
       </c>
@@ -7628,13 +7951,16 @@
         <v>440</v>
       </c>
       <c r="W111">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y111" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" ht="15">
+      <c r="AJ111" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" ht="15">
       <c r="A112">
         <v>109</v>
       </c>
@@ -7687,13 +8013,16 @@
         <v>440</v>
       </c>
       <c r="W112">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y112" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" ht="15">
+      <c r="AJ112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" ht="15">
       <c r="A113">
         <v>110</v>
       </c>
@@ -7746,13 +8075,16 @@
         <v>440</v>
       </c>
       <c r="W113">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y113" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" ht="15">
+      <c r="AJ113" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" ht="15">
       <c r="A114">
         <v>111</v>
       </c>
@@ -7805,13 +8137,16 @@
         <v>440</v>
       </c>
       <c r="W114">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y114" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" ht="15">
+      <c r="AJ114" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" ht="15">
       <c r="A115">
         <v>112</v>
       </c>
@@ -7864,13 +8199,16 @@
         <v>440</v>
       </c>
       <c r="W115">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y115" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" ht="15">
+      <c r="AJ115" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" ht="15">
       <c r="A116">
         <v>113</v>
       </c>
@@ -7923,13 +8261,16 @@
         <v>440</v>
       </c>
       <c r="W116">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y116" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" ht="15">
+      <c r="AJ116" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" ht="15">
       <c r="A117">
         <v>114</v>
       </c>
@@ -7953,11 +8294,14 @@
       <c r="T117" s="11"/>
       <c r="V117" s="11"/>
       <c r="W117">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y117" s="4"/>
-    </row>
-    <row r="118" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ117" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" ht="12" customHeight="1">
       <c r="A118">
         <v>115</v>
       </c>
@@ -7981,11 +8325,14 @@
       <c r="T118" s="12"/>
       <c r="V118" s="12"/>
       <c r="W118">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y118" s="4"/>
-    </row>
-    <row r="119" spans="1:25" ht="15">
+      <c r="AJ118" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" ht="15">
       <c r="A119">
         <v>116</v>
       </c>
@@ -8009,11 +8356,14 @@
       <c r="T119" s="11"/>
       <c r="V119" s="11"/>
       <c r="W119">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y119" s="4"/>
-    </row>
-    <row r="120" spans="1:25" ht="15">
+      <c r="AJ119" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" ht="15">
       <c r="A120">
         <v>117</v>
       </c>
@@ -8066,13 +8416,16 @@
         <v>440</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y120" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" ht="15">
+      <c r="AJ120" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" ht="15">
       <c r="A121">
         <v>118</v>
       </c>
@@ -8125,13 +8478,16 @@
         <v>440</v>
       </c>
       <c r="W121">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y121" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" ht="15">
+      <c r="AJ121" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" ht="15">
       <c r="A122">
         <v>119</v>
       </c>
@@ -8184,13 +8540,16 @@
         <v>440</v>
       </c>
       <c r="W122">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y122" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" ht="15">
+      <c r="AJ122" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" ht="15">
       <c r="A123">
         <v>120</v>
       </c>
@@ -8243,13 +8602,16 @@
         <v>440</v>
       </c>
       <c r="W123">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y123" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ123" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" ht="14" customHeight="1">
       <c r="A124">
         <v>121</v>
       </c>
@@ -8302,13 +8664,16 @@
         <v>440</v>
       </c>
       <c r="W124">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y124" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ124" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" ht="15" customHeight="1">
       <c r="A125">
         <v>122</v>
       </c>
@@ -8332,11 +8697,14 @@
       <c r="T125" s="11"/>
       <c r="V125" s="11"/>
       <c r="W125">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y125" s="4"/>
-    </row>
-    <row r="126" spans="1:25" ht="15">
+      <c r="AJ125" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" ht="15">
       <c r="A126">
         <v>123</v>
       </c>
@@ -8360,11 +8728,14 @@
       <c r="T126" s="11"/>
       <c r="V126" s="11"/>
       <c r="W126">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y126" s="4"/>
-    </row>
-    <row r="127" spans="1:25" ht="15">
+      <c r="AJ126" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" ht="15">
       <c r="A127">
         <v>124</v>
       </c>
@@ -8388,11 +8759,14 @@
       <c r="T127" s="11"/>
       <c r="V127" s="11"/>
       <c r="W127">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y127" s="4"/>
-    </row>
-    <row r="128" spans="1:25" ht="15">
+      <c r="AJ127" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" ht="15">
       <c r="A128">
         <v>125</v>
       </c>
@@ -8445,13 +8819,16 @@
         <v>440</v>
       </c>
       <c r="W128">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y128" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" ht="15">
+      <c r="AJ128" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" ht="15">
       <c r="A129">
         <v>126</v>
       </c>
@@ -8504,13 +8881,16 @@
         <v>440</v>
       </c>
       <c r="W129">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y129" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" ht="15">
+      <c r="AJ129" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" ht="15">
       <c r="A130">
         <v>127</v>
       </c>
@@ -8561,13 +8941,16 @@
         <v>440</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y130" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ130" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" ht="15" customHeight="1">
       <c r="A131">
         <v>128</v>
       </c>
@@ -8591,11 +8974,14 @@
       <c r="T131" s="11"/>
       <c r="V131" s="11"/>
       <c r="W131">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="1:25" ht="15">
+      <c r="AJ131" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" ht="15">
       <c r="A132">
         <v>129</v>
       </c>
@@ -8619,11 +9005,14 @@
       <c r="T132" s="17"/>
       <c r="V132" s="17"/>
       <c r="W132">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y132" s="4"/>
-    </row>
-    <row r="133" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ132" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" ht="12" customHeight="1">
       <c r="A133">
         <v>130</v>
       </c>
@@ -8647,11 +9036,14 @@
       <c r="T133" s="12"/>
       <c r="V133" s="12"/>
       <c r="W133">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y133" s="4"/>
-    </row>
-    <row r="134" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ133" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" ht="14" customHeight="1">
       <c r="A134">
         <v>131</v>
       </c>
@@ -8704,13 +9096,16 @@
         <v>439</v>
       </c>
       <c r="W134">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y134" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" ht="14">
+      <c r="AJ134" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" ht="14">
       <c r="A135">
         <v>132</v>
       </c>
@@ -8731,11 +9126,14 @@
       <c r="R135" s="22"/>
       <c r="V135" s="22"/>
       <c r="W135">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ135" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" ht="12" customHeight="1">
       <c r="A136">
         <v>133</v>
       </c>
@@ -8759,11 +9157,14 @@
       <c r="T136" s="12"/>
       <c r="V136" s="12"/>
       <c r="W136">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="1:25" ht="14">
+      <c r="AJ136" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" ht="14">
       <c r="A137">
         <v>134</v>
       </c>
@@ -8816,13 +9217,16 @@
         <v>440</v>
       </c>
       <c r="W137">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y137" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" ht="14">
+      <c r="AJ137" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" ht="14">
       <c r="A138">
         <v>135</v>
       </c>
@@ -8875,13 +9279,16 @@
         <v>440</v>
       </c>
       <c r="W138">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y138" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" ht="14">
+      <c r="AJ138" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" ht="14">
       <c r="A139">
         <v>136</v>
       </c>
@@ -8934,13 +9341,16 @@
         <v>440</v>
       </c>
       <c r="W139">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y139" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" ht="14">
+      <c r="AJ139" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" ht="14">
       <c r="A140">
         <v>137</v>
       </c>
@@ -8993,13 +9403,16 @@
         <v>440</v>
       </c>
       <c r="W140">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y140" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" ht="14">
+      <c r="AJ140" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" ht="14">
       <c r="A141">
         <v>138</v>
       </c>
@@ -9023,11 +9436,14 @@
       <c r="T141" s="19"/>
       <c r="V141" s="19"/>
       <c r="W141">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y141" s="4"/>
-    </row>
-    <row r="142" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ141" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" ht="12" customHeight="1">
       <c r="A142">
         <v>139</v>
       </c>
@@ -9051,11 +9467,14 @@
       <c r="T142" s="16"/>
       <c r="V142" s="16"/>
       <c r="W142">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y142" s="4"/>
-    </row>
-    <row r="143" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ142" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" ht="12" customHeight="1">
       <c r="A143">
         <v>140</v>
       </c>
@@ -9079,11 +9498,14 @@
       <c r="T143" s="16"/>
       <c r="V143" s="16"/>
       <c r="W143">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y143" s="4"/>
-    </row>
-    <row r="144" spans="1:25" ht="14">
+      <c r="AJ143" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" ht="14">
       <c r="A144">
         <v>141</v>
       </c>
@@ -9107,11 +9529,14 @@
       <c r="T144" s="11"/>
       <c r="V144" s="11"/>
       <c r="W144">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y144" s="4"/>
-    </row>
-    <row r="145" spans="1:25" ht="14">
+      <c r="AJ144" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" ht="14">
       <c r="A145">
         <v>142</v>
       </c>
@@ -9164,13 +9589,16 @@
         <v>440</v>
       </c>
       <c r="W145">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y145" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" ht="14">
+      <c r="AJ145" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" ht="14">
       <c r="A146">
         <v>143</v>
       </c>
@@ -9223,13 +9651,16 @@
         <v>440</v>
       </c>
       <c r="W146">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y146" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" ht="14">
+      <c r="AJ146" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" ht="14">
       <c r="A147">
         <v>144</v>
       </c>
@@ -9282,13 +9713,16 @@
         <v>440</v>
       </c>
       <c r="W147">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y147" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" ht="14">
+      <c r="AJ147" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" ht="14">
       <c r="A148">
         <v>145</v>
       </c>
@@ -9341,13 +9775,16 @@
         <v>440</v>
       </c>
       <c r="W148">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y148" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ148" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" ht="15" customHeight="1">
       <c r="A149">
         <v>146</v>
       </c>
@@ -9400,13 +9837,16 @@
         <v>440</v>
       </c>
       <c r="W149">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y149" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" ht="14">
+      <c r="AJ149" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" ht="14">
       <c r="A150">
         <v>147</v>
       </c>
@@ -9459,13 +9899,16 @@
         <v>440</v>
       </c>
       <c r="W150">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y150" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" ht="14">
+      <c r="AJ150" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" ht="14">
       <c r="A151">
         <v>148</v>
       </c>
@@ -9518,13 +9961,16 @@
         <v>440</v>
       </c>
       <c r="W151">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y151" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" ht="14">
+      <c r="AJ151" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" ht="14">
       <c r="A152">
         <v>149</v>
       </c>
@@ -9577,13 +10023,16 @@
         <v>440</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y152" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" ht="14">
+      <c r="AJ152" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" ht="14">
       <c r="A153">
         <v>150</v>
       </c>
@@ -9636,13 +10085,16 @@
         <v>440</v>
       </c>
       <c r="W153">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y153" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" ht="14">
+      <c r="AJ153" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" ht="14">
       <c r="A154">
         <v>151</v>
       </c>
@@ -9695,13 +10147,16 @@
         <v>440</v>
       </c>
       <c r="W154">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y154" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" ht="15">
+      <c r="AJ154" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" ht="15">
       <c r="A155">
         <v>152</v>
       </c>
@@ -9754,13 +10209,16 @@
         <v>440</v>
       </c>
       <c r="W155">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y155" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" ht="15">
+      <c r="AJ155" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="156" spans="1:36" ht="15">
       <c r="A156">
         <v>153</v>
       </c>
@@ -9813,13 +10271,16 @@
         <v>440</v>
       </c>
       <c r="W156">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y156" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" ht="14">
+      <c r="AJ156" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" ht="14">
       <c r="A157">
         <v>154</v>
       </c>
@@ -9872,13 +10333,16 @@
         <v>440</v>
       </c>
       <c r="W157">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y157" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ157" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" ht="14" customHeight="1">
       <c r="A158">
         <v>155</v>
       </c>
@@ -9931,13 +10395,16 @@
         <v>440</v>
       </c>
       <c r="W158">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y158" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" ht="14">
+      <c r="AJ158" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:36" ht="14">
       <c r="A159">
         <v>156</v>
       </c>
@@ -9990,13 +10457,16 @@
         <v>440</v>
       </c>
       <c r="W159">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y159" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" ht="15">
+      <c r="AJ159" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36" ht="15">
       <c r="A160">
         <v>157</v>
       </c>
@@ -10020,11 +10490,14 @@
       <c r="T160" s="11"/>
       <c r="V160" s="11"/>
       <c r="W160">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y160" s="4"/>
-    </row>
-    <row r="161" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ160" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:36" ht="12" customHeight="1">
       <c r="A161">
         <v>158</v>
       </c>
@@ -10048,11 +10521,14 @@
       <c r="T161" s="12"/>
       <c r="V161" s="12"/>
       <c r="W161">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y161" s="4"/>
-    </row>
-    <row r="162" spans="1:25" ht="15">
+      <c r="AJ161" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" ht="15">
       <c r="A162">
         <v>159</v>
       </c>
@@ -10076,11 +10552,14 @@
       <c r="T162" s="11"/>
       <c r="V162" s="11"/>
       <c r="W162">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y162" s="4"/>
-    </row>
-    <row r="163" spans="1:25" ht="15">
+      <c r="AJ162" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" ht="15">
       <c r="A163">
         <v>160</v>
       </c>
@@ -10133,13 +10612,16 @@
         <v>439</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y163" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" ht="15">
+      <c r="AJ163" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" ht="15">
       <c r="A164">
         <v>161</v>
       </c>
@@ -10192,13 +10674,16 @@
         <v>439</v>
       </c>
       <c r="W164">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y164" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" ht="12" customHeight="1">
+      <c r="AJ164" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" ht="12" customHeight="1">
       <c r="A165">
         <v>162</v>
       </c>
@@ -10222,11 +10707,14 @@
       <c r="T165" s="12"/>
       <c r="V165" s="12"/>
       <c r="W165">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y165" s="4"/>
-    </row>
-    <row r="166" spans="1:25" ht="15">
+      <c r="AJ165" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" ht="15">
       <c r="A166">
         <v>163</v>
       </c>
@@ -10250,11 +10738,14 @@
       <c r="T166" s="11"/>
       <c r="V166" s="11"/>
       <c r="W166">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y166" s="4"/>
-    </row>
-    <row r="167" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ166" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" ht="14" customHeight="1">
       <c r="A167">
         <v>164</v>
       </c>
@@ -10307,13 +10798,16 @@
         <v>439</v>
       </c>
       <c r="W167">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y167" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" ht="15">
+      <c r="AJ167" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:36" ht="15">
       <c r="A168">
         <v>165</v>
       </c>
@@ -10366,13 +10860,16 @@
         <v>439</v>
       </c>
       <c r="W168">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y168" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" ht="15">
+      <c r="AJ168" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:36" ht="15">
       <c r="A169">
         <v>166</v>
       </c>
@@ -10425,13 +10922,16 @@
         <v>439</v>
       </c>
       <c r="W169">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y169" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ169" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:36" ht="14" customHeight="1">
       <c r="A170">
         <v>167</v>
       </c>
@@ -10484,13 +10984,16 @@
         <v>441</v>
       </c>
       <c r="W170">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y170" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" ht="15">
+      <c r="AJ170" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36" ht="15">
       <c r="A171">
         <v>168</v>
       </c>
@@ -10543,13 +11046,16 @@
         <v>441</v>
       </c>
       <c r="W171">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y171" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" ht="15">
+      <c r="AJ171" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:36" ht="15">
       <c r="A172">
         <v>169</v>
       </c>
@@ -10602,13 +11108,16 @@
         <v>439</v>
       </c>
       <c r="W172">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y172" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" ht="15">
+      <c r="AJ172" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="173" spans="1:36" ht="15">
       <c r="A173">
         <v>170</v>
       </c>
@@ -10661,13 +11170,16 @@
         <v>439</v>
       </c>
       <c r="W173">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y173" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" ht="15">
+      <c r="AJ173" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36" ht="15">
       <c r="A174">
         <v>171</v>
       </c>
@@ -10720,13 +11232,16 @@
         <v>439</v>
       </c>
       <c r="W174">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y174" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" ht="15">
+      <c r="AJ174" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="1:36" ht="15">
       <c r="A175">
         <v>172</v>
       </c>
@@ -10779,13 +11294,16 @@
         <v>439</v>
       </c>
       <c r="W175">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y175" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" ht="15">
+      <c r="AJ175" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="176" spans="1:36" ht="15">
       <c r="A176">
         <v>173</v>
       </c>
@@ -10838,13 +11356,16 @@
         <v>439</v>
       </c>
       <c r="W176">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y176" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" ht="15">
+      <c r="AJ176" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:36" ht="15">
       <c r="A177">
         <v>174</v>
       </c>
@@ -10897,13 +11418,16 @@
         <v>439</v>
       </c>
       <c r="W177">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y177" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" ht="15">
+      <c r="AJ177" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:36" ht="15">
       <c r="A178">
         <v>175</v>
       </c>
@@ -10956,13 +11480,16 @@
         <v>439</v>
       </c>
       <c r="W178">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y178" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ178" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="1:36" ht="14" customHeight="1">
       <c r="A179">
         <v>176</v>
       </c>
@@ -11015,13 +11542,16 @@
         <v>439</v>
       </c>
       <c r="W179">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y179" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" ht="15">
+      <c r="AJ179" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:36" ht="15">
       <c r="A180">
         <v>177</v>
       </c>
@@ -11074,13 +11604,16 @@
         <v>439</v>
       </c>
       <c r="W180">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y180" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" ht="15">
+      <c r="AJ180" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:36" ht="15">
       <c r="A181">
         <v>178</v>
       </c>
@@ -11133,13 +11666,16 @@
         <v>439</v>
       </c>
       <c r="W181">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y181" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ181" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="182" spans="1:36" ht="14" customHeight="1">
       <c r="A182">
         <v>179</v>
       </c>
@@ -11192,13 +11728,16 @@
         <v>439</v>
       </c>
       <c r="W182">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y182" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" ht="15">
+      <c r="AJ182" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:36" ht="15">
       <c r="A183">
         <v>180</v>
       </c>
@@ -11251,13 +11790,16 @@
         <v>439</v>
       </c>
       <c r="W183">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y183" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ183" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" spans="1:36" ht="14" customHeight="1">
       <c r="A184">
         <v>181</v>
       </c>
@@ -11310,13 +11852,16 @@
         <v>439</v>
       </c>
       <c r="W184">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y184" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ184" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:36" ht="14" customHeight="1">
       <c r="A185">
         <v>182</v>
       </c>
@@ -11369,13 +11914,16 @@
         <v>439</v>
       </c>
       <c r="W185">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y185" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ185" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" spans="1:36" ht="14" customHeight="1">
       <c r="A186">
         <v>183</v>
       </c>
@@ -11428,13 +11976,16 @@
         <v>439</v>
       </c>
       <c r="W186">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y186" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ186" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:36" ht="15" customHeight="1">
       <c r="A187">
         <v>184</v>
       </c>
@@ -11487,13 +12038,16 @@
         <v>439</v>
       </c>
       <c r="W187">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y187" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ187" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="188" spans="1:36" ht="15" customHeight="1">
       <c r="A188">
         <v>185</v>
       </c>
@@ -11546,13 +12100,16 @@
         <v>439</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y188" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ188" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="189" spans="1:36" ht="14" customHeight="1">
       <c r="A189">
         <v>186</v>
       </c>
@@ -11608,13 +12165,16 @@
         <v>439</v>
       </c>
       <c r="W189">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y189" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ189" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="190" spans="1:36" ht="14" customHeight="1">
       <c r="A190">
         <v>187</v>
       </c>
@@ -11667,13 +12227,16 @@
         <v>439</v>
       </c>
       <c r="W190">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y190" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" ht="15">
+      <c r="AJ190" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:36" ht="15">
       <c r="A191">
         <v>188</v>
       </c>
@@ -11726,13 +12289,16 @@
         <v>439</v>
       </c>
       <c r="W191">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y191" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ191" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:36" ht="15" customHeight="1">
       <c r="A192">
         <v>189</v>
       </c>
@@ -11785,13 +12351,16 @@
         <v>439</v>
       </c>
       <c r="W192">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y192" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="193" spans="1:25" ht="15">
+      <c r="AJ192" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="193" spans="1:36" ht="15">
       <c r="A193">
         <v>190</v>
       </c>
@@ -11844,13 +12413,16 @@
         <v>439</v>
       </c>
       <c r="W193">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y193" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="194" spans="1:25" ht="15">
+      <c r="AJ193" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" ht="15">
       <c r="A194">
         <v>191</v>
       </c>
@@ -11903,13 +12475,16 @@
         <v>439</v>
       </c>
       <c r="W194">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y194" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="195" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ194" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" ht="15" customHeight="1">
       <c r="A195">
         <v>192</v>
       </c>
@@ -11962,13 +12537,16 @@
         <v>439</v>
       </c>
       <c r="W195">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y195" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="196" spans="1:25" ht="15">
+      <c r="AJ195" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="1:36" ht="15">
       <c r="A196">
         <v>193</v>
       </c>
@@ -12021,13 +12599,16 @@
         <v>439</v>
       </c>
       <c r="W196">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y196" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="197" spans="1:25" ht="15">
+      <c r="AJ196" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="197" spans="1:36" ht="15">
       <c r="A197">
         <v>194</v>
       </c>
@@ -12080,13 +12661,16 @@
         <v>439</v>
       </c>
       <c r="W197">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y197" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="198" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ197" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="198" spans="1:36" ht="15" customHeight="1">
       <c r="A198">
         <v>195</v>
       </c>
@@ -12139,13 +12723,16 @@
         <v>439</v>
       </c>
       <c r="W198">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y198" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="199" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ198" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="199" spans="1:36" ht="14" customHeight="1">
       <c r="A199">
         <v>196</v>
       </c>
@@ -12198,13 +12785,16 @@
         <v>440</v>
       </c>
       <c r="W199">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y199" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="200" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ199" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="200" spans="1:36" ht="14" customHeight="1">
       <c r="A200">
         <v>197</v>
       </c>
@@ -12260,13 +12850,16 @@
         <v>440</v>
       </c>
       <c r="W200">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y200" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ200" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="1:36" ht="14" customHeight="1">
       <c r="A201">
         <v>198</v>
       </c>
@@ -12322,13 +12915,16 @@
         <v>440</v>
       </c>
       <c r="W201">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y201" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ201" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" ht="14" customHeight="1">
       <c r="A202">
         <v>199</v>
       </c>
@@ -12384,13 +12980,16 @@
         <v>440</v>
       </c>
       <c r="W202">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y202" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ202" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="203" spans="1:36" ht="14" customHeight="1">
       <c r="A203">
         <v>200</v>
       </c>
@@ -12446,13 +13045,16 @@
         <v>440</v>
       </c>
       <c r="W203">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y203" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ203" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="204" spans="1:36" ht="15" customHeight="1">
       <c r="A204">
         <v>201</v>
       </c>
@@ -12508,13 +13110,16 @@
         <v>440</v>
       </c>
       <c r="W204">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y204" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" ht="15">
+      <c r="AJ204" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="205" spans="1:36" ht="15">
       <c r="A205">
         <v>202</v>
       </c>
@@ -12570,13 +13175,16 @@
         <v>440</v>
       </c>
       <c r="W205">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y205" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" ht="15">
+      <c r="AJ205" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="206" spans="1:36" ht="15">
       <c r="A206">
         <v>203</v>
       </c>
@@ -12632,13 +13240,16 @@
         <v>440</v>
       </c>
       <c r="W206">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y206" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" ht="15" customHeight="1">
+      <c r="AJ206" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="207" spans="1:36" ht="15" customHeight="1">
       <c r="A207">
         <v>204</v>
       </c>
@@ -12694,13 +13305,16 @@
         <v>440</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y207" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" ht="15">
+      <c r="AJ207" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="208" spans="1:36" ht="15">
       <c r="A208">
         <v>205</v>
       </c>
@@ -12756,13 +13370,16 @@
         <v>440</v>
       </c>
       <c r="W208">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y208" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" ht="15">
+      <c r="AJ208" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="209" spans="1:36" ht="15">
       <c r="A209">
         <v>206</v>
       </c>
@@ -12818,13 +13435,16 @@
         <v>440</v>
       </c>
       <c r="W209">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y209" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" ht="15">
+      <c r="AJ209" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="210" spans="1:36" ht="15">
       <c r="A210">
         <v>207</v>
       </c>
@@ -12880,13 +13500,16 @@
         <v>440</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y210" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" ht="15">
+      <c r="AJ210" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="1:36" ht="15">
       <c r="A211">
         <v>208</v>
       </c>
@@ -12939,13 +13562,16 @@
         <v>439</v>
       </c>
       <c r="W211">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y211" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" ht="15">
+      <c r="AJ211" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:36" ht="15">
       <c r="A212">
         <v>209</v>
       </c>
@@ -12998,13 +13624,16 @@
         <v>440</v>
       </c>
       <c r="W212">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y212" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" ht="15">
+      <c r="AJ212" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:36" ht="15">
       <c r="A213">
         <v>210</v>
       </c>
@@ -13057,13 +13686,16 @@
         <v>440</v>
       </c>
       <c r="W213">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y213" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" ht="15">
+      <c r="AJ213" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="214" spans="1:36" ht="15">
       <c r="A214">
         <v>211</v>
       </c>
@@ -13116,13 +13748,16 @@
         <v>440</v>
       </c>
       <c r="W214">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y214" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" ht="15">
+      <c r="AJ214" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="1:36" ht="15">
       <c r="A215">
         <v>212</v>
       </c>
@@ -13178,13 +13813,16 @@
         <v>439</v>
       </c>
       <c r="W215">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y215" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" ht="15">
+      <c r="AJ215" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="216" spans="1:36" ht="15">
       <c r="A216">
         <v>213</v>
       </c>
@@ -13237,13 +13875,16 @@
         <v>440</v>
       </c>
       <c r="W216">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y216" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" ht="15">
+      <c r="AJ216" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="217" spans="1:36" ht="15">
       <c r="A217">
         <v>214</v>
       </c>
@@ -13296,13 +13937,16 @@
         <v>440</v>
       </c>
       <c r="W217">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y217" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" ht="15">
+      <c r="AJ217" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="218" spans="1:36" ht="15">
       <c r="A218">
         <v>215</v>
       </c>
@@ -13355,13 +13999,16 @@
         <v>440</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y218" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" ht="15">
+      <c r="AJ218" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="219" spans="1:36" ht="15">
       <c r="A219">
         <v>216</v>
       </c>
@@ -13414,13 +14061,16 @@
         <v>439</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y219" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" ht="15">
+      <c r="AJ219" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="220" spans="1:36" ht="15">
       <c r="A220">
         <v>217</v>
       </c>
@@ -13473,13 +14123,16 @@
         <v>440</v>
       </c>
       <c r="W220">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y220" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ220" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:36" ht="14" customHeight="1">
       <c r="A221">
         <v>218</v>
       </c>
@@ -13532,13 +14185,16 @@
         <v>440</v>
       </c>
       <c r="W221">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y221" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" ht="15">
+      <c r="AJ221" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36" ht="15">
       <c r="A222">
         <v>219</v>
       </c>
@@ -13591,13 +14247,16 @@
         <v>440</v>
       </c>
       <c r="W222">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y222" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" ht="15">
+      <c r="AJ222" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36" ht="15">
       <c r="A223">
         <v>220</v>
       </c>
@@ -13650,13 +14309,16 @@
         <v>440</v>
       </c>
       <c r="W223">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y223" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" ht="15">
+      <c r="AJ223" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36" ht="15">
       <c r="A224">
         <v>221</v>
       </c>
@@ -13709,13 +14371,16 @@
         <v>440</v>
       </c>
       <c r="W224">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y224" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ224" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36" ht="14" customHeight="1">
       <c r="A225">
         <v>222</v>
       </c>
@@ -13768,13 +14433,16 @@
         <v>440</v>
       </c>
       <c r="W225">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y225" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="226" spans="1:25" ht="15">
+      <c r="AJ225" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36" ht="15">
       <c r="A226">
         <v>223</v>
       </c>
@@ -13827,13 +14495,16 @@
         <v>440</v>
       </c>
       <c r="W226">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y226" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" ht="15">
+      <c r="AJ226" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36" ht="15">
       <c r="A227">
         <v>224</v>
       </c>
@@ -13886,13 +14557,16 @@
         <v>440</v>
       </c>
       <c r="W227">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y227" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" ht="15">
+      <c r="AJ227" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="228" spans="1:36" ht="15">
       <c r="A228">
         <v>225</v>
       </c>
@@ -13945,13 +14619,16 @@
         <v>440</v>
       </c>
       <c r="W228">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y228" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="229" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ228" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" ht="14" customHeight="1">
       <c r="A229">
         <v>226</v>
       </c>
@@ -14004,13 +14681,16 @@
         <v>440</v>
       </c>
       <c r="W229">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y229" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" ht="15">
+      <c r="AJ229" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" ht="15">
       <c r="A230">
         <v>227</v>
       </c>
@@ -14063,13 +14743,16 @@
         <v>440</v>
       </c>
       <c r="W230">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y230" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="231" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ230" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36" ht="14" customHeight="1">
       <c r="A231">
         <v>228</v>
       </c>
@@ -14122,13 +14805,16 @@
         <v>440</v>
       </c>
       <c r="W231">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y231" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="232" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ231" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36" ht="14" customHeight="1">
       <c r="A232">
         <v>229</v>
       </c>
@@ -14181,13 +14867,16 @@
         <v>440</v>
       </c>
       <c r="W232">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y232" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ232" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36" ht="14" customHeight="1">
       <c r="A233">
         <v>230</v>
       </c>
@@ -14240,13 +14929,16 @@
         <v>440</v>
       </c>
       <c r="W233">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y233" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="234" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ233" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:36" ht="14" customHeight="1">
       <c r="A234">
         <v>231</v>
       </c>
@@ -14299,13 +14991,16 @@
         <v>440</v>
       </c>
       <c r="W234">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y234" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="235" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ234" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:36" ht="14" customHeight="1">
       <c r="A235">
         <v>232</v>
       </c>
@@ -14358,13 +15053,16 @@
         <v>440</v>
       </c>
       <c r="W235">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y235" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="236" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ235" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="236" spans="1:36" ht="14" customHeight="1">
       <c r="A236">
         <v>233</v>
       </c>
@@ -14417,13 +15115,16 @@
         <v>440</v>
       </c>
       <c r="W236">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y236" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="237" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ236" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="237" spans="1:36" ht="14" customHeight="1">
       <c r="A237">
         <v>234</v>
       </c>
@@ -14476,13 +15177,16 @@
         <v>440</v>
       </c>
       <c r="W237">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y237" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="238" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ237" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" ht="14" customHeight="1">
       <c r="A238">
         <v>235</v>
       </c>
@@ -14535,13 +15239,16 @@
         <v>440</v>
       </c>
       <c r="W238">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y238" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ238" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="239" spans="1:36" ht="14" customHeight="1">
       <c r="A239">
         <v>236</v>
       </c>
@@ -14594,13 +15301,16 @@
         <v>440</v>
       </c>
       <c r="W239">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y239" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ239" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:36" ht="14" customHeight="1">
       <c r="A240">
         <v>237</v>
       </c>
@@ -14653,13 +15363,16 @@
         <v>440</v>
       </c>
       <c r="W240">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y240" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="241" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ240" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:36" ht="14" customHeight="1">
       <c r="A241">
         <v>238</v>
       </c>
@@ -14712,13 +15425,16 @@
         <v>440</v>
       </c>
       <c r="W241">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y241" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="242" spans="1:25" ht="15">
+      <c r="AJ241" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" ht="15">
       <c r="A242">
         <v>239</v>
       </c>
@@ -14771,13 +15487,16 @@
         <v>440</v>
       </c>
       <c r="W242">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y242" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ242" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" ht="14" customHeight="1">
       <c r="A243">
         <v>240</v>
       </c>
@@ -14830,13 +15549,16 @@
         <v>440</v>
       </c>
       <c r="W243">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y243" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" ht="15">
+      <c r="AJ243" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" ht="15">
       <c r="A244">
         <v>241</v>
       </c>
@@ -14889,13 +15611,16 @@
         <v>440</v>
       </c>
       <c r="W244">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y244" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="245" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" ht="14" customHeight="1">
       <c r="A245">
         <v>242</v>
       </c>
@@ -14948,13 +15673,16 @@
         <v>440</v>
       </c>
       <c r="W245">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y245" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ245" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="246" spans="1:36" ht="14" customHeight="1">
       <c r="A246">
         <v>243</v>
       </c>
@@ -15007,13 +15735,16 @@
         <v>440</v>
       </c>
       <c r="W246">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y246" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ246" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:36" ht="14" customHeight="1">
       <c r="A247">
         <v>244</v>
       </c>
@@ -15066,13 +15797,16 @@
         <v>440</v>
       </c>
       <c r="W247">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y247" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ247" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" ht="14" customHeight="1">
       <c r="A248">
         <v>245</v>
       </c>
@@ -15125,13 +15859,16 @@
         <v>442</v>
       </c>
       <c r="W248">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y248" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:36" ht="14" customHeight="1">
       <c r="A249">
         <v>246</v>
       </c>
@@ -15184,13 +15921,16 @@
         <v>440</v>
       </c>
       <c r="W249">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y249" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ249" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" ht="14" customHeight="1">
       <c r="A250">
         <v>247</v>
       </c>
@@ -15243,13 +15983,16 @@
         <v>440</v>
       </c>
       <c r="W250">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y250" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ250" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:36" ht="14" customHeight="1">
       <c r="A251">
         <v>248</v>
       </c>
@@ -15302,13 +16045,16 @@
         <v>440</v>
       </c>
       <c r="W251">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y251" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ251" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="252" spans="1:36" ht="14" customHeight="1">
       <c r="A252">
         <v>249</v>
       </c>
@@ -15361,13 +16107,16 @@
         <v>440</v>
       </c>
       <c r="W252">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y252" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ252" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:36" ht="14" customHeight="1">
       <c r="A253">
         <v>250</v>
       </c>
@@ -15420,13 +16169,16 @@
         <v>440</v>
       </c>
       <c r="W253">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y253" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ253" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="254" spans="1:36" ht="14" customHeight="1">
       <c r="A254">
         <v>251</v>
       </c>
@@ -15479,13 +16231,16 @@
         <v>440</v>
       </c>
       <c r="W254">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y254" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ254" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="255" spans="1:36" ht="14" customHeight="1">
       <c r="A255">
         <v>252</v>
       </c>
@@ -15538,13 +16293,16 @@
         <v>440</v>
       </c>
       <c r="W255">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y255" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="256" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ255" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="256" spans="1:36" ht="14" customHeight="1">
       <c r="A256">
         <v>253</v>
       </c>
@@ -15597,13 +16355,16 @@
         <v>440</v>
       </c>
       <c r="W256">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y256" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="257" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ256" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="257" spans="1:36" ht="14" customHeight="1">
       <c r="A257">
         <v>254</v>
       </c>
@@ -15656,13 +16417,16 @@
         <v>440</v>
       </c>
       <c r="W257">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y257" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ257" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="258" spans="1:36" ht="14" customHeight="1">
       <c r="A258">
         <v>255</v>
       </c>
@@ -15718,13 +16482,16 @@
         <v>440</v>
       </c>
       <c r="W258">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y258" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ258" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="259" spans="1:36" ht="14" customHeight="1">
       <c r="A259">
         <v>256</v>
       </c>
@@ -15777,13 +16544,16 @@
         <v>440</v>
       </c>
       <c r="W259">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y259" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="260" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ259" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="260" spans="1:36" ht="14" customHeight="1">
       <c r="A260">
         <v>257</v>
       </c>
@@ -15836,13 +16606,16 @@
         <v>440</v>
       </c>
       <c r="W260">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y260" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="261" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ260" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="261" spans="1:36" ht="14" customHeight="1">
       <c r="A261">
         <v>258</v>
       </c>
@@ -15895,13 +16668,16 @@
         <v>440</v>
       </c>
       <c r="W261">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y261" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="262" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ261" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="262" spans="1:36" ht="14" customHeight="1">
       <c r="A262">
         <v>259</v>
       </c>
@@ -15954,13 +16730,16 @@
         <v>440</v>
       </c>
       <c r="W262">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y262" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="263" spans="1:25" ht="14" customHeight="1">
+      <c r="AJ262" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="263" spans="1:36" ht="14" customHeight="1">
       <c r="A263">
         <v>260</v>
       </c>
@@ -16013,19 +16792,22 @@
         <v>440</v>
       </c>
       <c r="W263">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="Y263" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="264" spans="1:25">
+      <c r="AJ263" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="264" spans="1:36">
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:36">
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:36">
       <c r="B266" s="2"/>
     </row>
   </sheetData>
